--- a/悬赏封印.xlsx
+++ b/悬赏封印.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="483">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,87 +37,1637 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第七章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十九章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：首无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑时之女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑时之女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑时之女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：吸血姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳弟弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳弟弟跳跳弟弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：吸血姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳弟弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：萤草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：雨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙瓷器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏日之风物诗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼使白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰鼬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼使黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古笼火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰鼬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰鼬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙瓷器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰鼬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫蛊师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独眼小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：孟婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：孟婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座敷童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座敷童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:4：盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:孟婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：骨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：骨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：傀儡师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萤草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：丑时之女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傀儡师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：丑时之女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座敷童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：傀儡师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：傀儡师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：酒吞童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：钱鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:钱鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：孟婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：孟婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食梦貘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：食梦貘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：食梦貘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食梦貘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：海坊主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：海坊主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：童女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：童女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:童男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：童男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：雪女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：雪女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：跳跳妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山兔大暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小松丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小松丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞剑的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳弟弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼使白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳弟弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姑获鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:天邪鬼：黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：天邪鬼：黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：兵佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：兵佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提灯小灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：凤凰火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：九命猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九命猫x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：九命猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：九命猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九命猫x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九命猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九命猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九命猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸦天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：武士之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：武士之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独眼小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：独眼小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独眼小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：九命猫</t>
+  </si>
+  <si>
+    <t>九命猫</t>
+  </si>
+  <si>
+    <t>4：独眼小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：鬼女红叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼： 青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：鬼女红叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：樱花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：樱花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：樱花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：桃花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：络新妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：络新妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：络新妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟烟罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>络新妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青坊主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：青坊主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：青坊主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：酒吞童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：络新妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠比寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：饿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss:判官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼使黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼使白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第六章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第七章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十一章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十四章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十五章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十六章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十七章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十八章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十九章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二十章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二十一章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二十二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二十三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：饿鬼</t>
+    <t>1：灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：蝴蝶精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：蝴蝶精</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,7 +1675,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2：饿鬼</t>
+    <t>涂壁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,7 +1683,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4：唐纸伞妖</t>
+    <t>Boss：巫蛊师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：河童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：河童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：提灯小僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">跳跳犬 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：妖狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座敷童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：妖狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：帚神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：寄生魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：座敷童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天邪鬼：青</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,619 +1831,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1：般若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：般若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古笼火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：般若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古笼火x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清姬x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：古笼火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5：古笼火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：清姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：清姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古笼火x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss：妖刀姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古笼火x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨女的等候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐纸伞妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗墓小鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九命猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座敷童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：饿鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5：唐纸伞妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6：唐纸伞妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天邪鬼：绿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss：首无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：烟烟罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武士之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：烟烟罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武士之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武士之魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：食发鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑时之女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4：食发鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑时之女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5：食发鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑时之女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6：吸血姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳弟弟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳弟弟跳跳弟弟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜叉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：吸血姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳弟弟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜叉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss：萤草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟烟罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟烟罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜叉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:帚神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐纸伞妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐纸伞妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：帚神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂壁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂壁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：唐纸伞妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天邪鬼： 赤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5：天邪鬼：赤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂壁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:唐纸伞妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6：天邪鬼赤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss：雨女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帚神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青蛙瓷器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏日之风物诗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提灯小僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼使白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤舌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镰鼬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食发鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天邪鬼：赤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼使黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古笼火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镰鼬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管狐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗墓小鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镰鼬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟烟罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山童</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天邪鬼：青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青蛙瓷器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帚神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镰鼬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三尾猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三尾猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫蛊师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独眼小僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸦天狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青行灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：孟婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：孟婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座敷童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河童</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座敷童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:4：盗墓小鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:孟婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5：盗墓小鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6：骨女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：骨女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss：傀儡师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗墓小鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萤草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：丑时之女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天邪鬼：青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傀儡师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：丑时之女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狸猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4：觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤舌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座敷童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>犬神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5：傀儡师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6：傀儡师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss：酒吞童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳哥哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食发鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：提灯小僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：提灯小僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：钱鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帚神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:钱鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帚神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5：山兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸦天狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6：山兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸦天狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss：孟婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饿鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss：孟婆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI89"/>
+  <dimension ref="A1:AI150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1105,26 +2299,26 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2">
-        <v>2</v>
+      <c r="F1" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2">
-        <v>3</v>
+      <c r="J1" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2">
-        <v>4</v>
+      <c r="N1" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1148,49 +2342,79 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>2</v>
+      <c r="F3" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2">
-        <v>3</v>
+      <c r="J3" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2">
-        <v>4</v>
+      <c r="N3" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2">
-        <v>5</v>
+      <c r="R3" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1208,55 +2432,94 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" t="s">
+        <v>446</v>
+      </c>
+      <c r="K4" t="s">
+        <v>447</v>
+      </c>
+      <c r="N4" t="s">
+        <v>443</v>
+      </c>
+      <c r="O4" t="s">
+        <v>443</v>
+      </c>
+      <c r="R4" t="s">
+        <v>446</v>
+      </c>
+      <c r="S4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="3" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1268,12 +2531,12 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1281,99 +2544,111 @@
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>265</v>
+      </c>
+      <c r="H6" t="s">
+        <v>265</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>268</v>
+      </c>
+      <c r="M6" t="s">
+        <v>269</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>271</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>274</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="V6" t="s">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="W6" t="s">
-        <v>68</v>
+        <v>277</v>
+      </c>
+      <c r="X6" t="s">
+        <v>278</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AE6" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AF6" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>2</v>
+      <c r="F7" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>3</v>
+      <c r="J7" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2">
-        <v>4</v>
+      <c r="N7" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>5</v>
+      <c r="R7" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2">
-        <v>6</v>
+      <c r="V7" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1385,55 +2660,112 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N8" t="s">
+        <v>259</v>
+      </c>
+      <c r="O8" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" t="s">
+        <v>259</v>
+      </c>
+      <c r="R8" t="s">
+        <v>259</v>
+      </c>
+      <c r="S8" t="s">
+        <v>259</v>
+      </c>
+      <c r="T8" t="s">
+        <v>259</v>
+      </c>
+      <c r="V8" t="s">
+        <v>255</v>
+      </c>
+      <c r="W8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
+      <c r="B9" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>2</v>
+      <c r="F9" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>3</v>
+      <c r="J9" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2">
-        <v>4</v>
+      <c r="N9" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2">
-        <v>5</v>
+      <c r="R9" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2">
-        <v>6</v>
+      <c r="V9" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1445,55 +2777,121 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K10" t="s">
+        <v>304</v>
+      </c>
+      <c r="L10" t="s">
+        <v>304</v>
+      </c>
+      <c r="N10" t="s">
+        <v>301</v>
+      </c>
+      <c r="O10" t="s">
+        <v>306</v>
+      </c>
+      <c r="P10" t="s">
+        <v>306</v>
+      </c>
+      <c r="R10" t="s">
+        <v>308</v>
+      </c>
+      <c r="S10" t="s">
+        <v>306</v>
+      </c>
+      <c r="T10" t="s">
+        <v>306</v>
+      </c>
+      <c r="V10" t="s">
+        <v>310</v>
+      </c>
+      <c r="W10" t="s">
+        <v>310</v>
+      </c>
+      <c r="X10" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
+        <v>403</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>2</v>
+      <c r="F11" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>3</v>
+      <c r="J11" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>4</v>
+      <c r="N11" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2">
-        <v>5</v>
+      <c r="R11" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2">
-        <v>6</v>
+      <c r="V11" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1505,115 +2903,271 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2" t="s">
-        <v>23</v>
+        <v>416</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" t="s">
+        <v>407</v>
+      </c>
+      <c r="H12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J12" t="s">
+        <v>409</v>
+      </c>
+      <c r="K12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L12" t="s">
+        <v>409</v>
+      </c>
+      <c r="N12" t="s">
+        <v>409</v>
+      </c>
+      <c r="O12" t="s">
+        <v>409</v>
+      </c>
+      <c r="P12" t="s">
+        <v>409</v>
+      </c>
+      <c r="R12" t="s">
+        <v>413</v>
+      </c>
+      <c r="S12" t="s">
+        <v>414</v>
+      </c>
+      <c r="T12" t="s">
+        <v>415</v>
+      </c>
+      <c r="V12" t="s">
+        <v>413</v>
+      </c>
+      <c r="W12" t="s">
+        <v>414</v>
+      </c>
+      <c r="X12" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>2</v>
+      <c r="F13" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>3</v>
+      <c r="J13" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2">
-        <v>4</v>
+      <c r="N13" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2">
-        <v>5</v>
+      <c r="R13" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2">
-        <v>6</v>
+      <c r="V13" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2">
-        <v>7</v>
+      <c r="Z13" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2" t="s">
-        <v>23</v>
+        <v>437</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2" t="s">
-        <v>23</v>
+        <v>439</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G14" t="s">
+        <v>407</v>
+      </c>
+      <c r="H14" t="s">
+        <v>407</v>
+      </c>
+      <c r="J14" t="s">
+        <v>424</v>
+      </c>
+      <c r="K14" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" t="s">
+        <v>425</v>
+      </c>
+      <c r="N14" t="s">
+        <v>427</v>
+      </c>
+      <c r="O14" t="s">
+        <v>428</v>
+      </c>
+      <c r="P14" t="s">
+        <v>429</v>
+      </c>
+      <c r="R14" t="s">
+        <v>432</v>
+      </c>
+      <c r="S14" t="s">
+        <v>432</v>
+      </c>
+      <c r="T14" t="s">
+        <v>432</v>
+      </c>
+      <c r="U14" t="s">
+        <v>433</v>
+      </c>
+      <c r="V14" t="s">
+        <v>429</v>
+      </c>
+      <c r="W14" t="s">
+        <v>429</v>
+      </c>
+      <c r="X14" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>413</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>2</v>
+      <c r="F15" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>3</v>
+      <c r="J15" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2">
-        <v>4</v>
+      <c r="N15" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2">
-        <v>5</v>
+      <c r="R15" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2">
-        <v>6</v>
+      <c r="V15" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1625,55 +3179,130 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2" t="s">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2" t="s">
-        <v>23</v>
+        <v>355</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H16" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" t="s">
+        <v>348</v>
+      </c>
+      <c r="K16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L16" t="s">
+        <v>348</v>
+      </c>
+      <c r="N16" t="s">
+        <v>350</v>
+      </c>
+      <c r="O16" t="s">
+        <v>350</v>
+      </c>
+      <c r="P16" t="s">
+        <v>351</v>
+      </c>
+      <c r="R16" t="s">
+        <v>356</v>
+      </c>
+      <c r="S16" t="s">
+        <v>348</v>
+      </c>
+      <c r="T16" t="s">
+        <v>357</v>
+      </c>
+      <c r="V16" t="s">
+        <v>358</v>
+      </c>
+      <c r="W16" t="s">
+        <v>359</v>
+      </c>
+      <c r="X16" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -1685,12 +3314,12 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -1698,120 +3327,120 @@
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" t="s">
+        <v>159</v>
+      </c>
+      <c r="R18" t="s">
+        <v>161</v>
+      </c>
+      <c r="S18" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18" t="s">
+        <v>161</v>
+      </c>
+      <c r="U18" t="s">
+        <v>162</v>
+      </c>
+      <c r="V18" t="s">
+        <v>161</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
         <v>165</v>
       </c>
-      <c r="C18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD18" t="s">
         <v>168</v>
       </c>
-      <c r="H18" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" t="s">
-        <v>171</v>
-      </c>
-      <c r="O18" t="s">
-        <v>169</v>
-      </c>
-      <c r="P18" t="s">
-        <v>173</v>
-      </c>
-      <c r="R18" t="s">
-        <v>175</v>
-      </c>
-      <c r="S18" t="s">
-        <v>175</v>
-      </c>
-      <c r="T18" t="s">
-        <v>175</v>
-      </c>
-      <c r="U18" t="s">
-        <v>176</v>
-      </c>
-      <c r="V18" t="s">
-        <v>175</v>
-      </c>
-      <c r="W18" t="s">
-        <v>178</v>
-      </c>
-      <c r="X18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>182</v>
-      </c>
       <c r="AE18" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AF18" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AH18" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AI18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -1823,12 +3452,12 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -1836,120 +3465,120 @@
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>141</v>
+      </c>
+      <c r="R20" t="s">
+        <v>137</v>
+      </c>
+      <c r="S20" t="s">
+        <v>143</v>
+      </c>
+      <c r="T20" t="s">
+        <v>137</v>
+      </c>
+      <c r="V20" t="s">
+        <v>121</v>
+      </c>
+      <c r="W20" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE20" t="s">
         <v>147</v>
       </c>
-      <c r="C20" t="s">
+      <c r="AF20" t="s">
         <v>148</v>
       </c>
-      <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" t="s">
-        <v>153</v>
-      </c>
-      <c r="P20" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>155</v>
-      </c>
-      <c r="R20" t="s">
-        <v>151</v>
-      </c>
-      <c r="S20" t="s">
-        <v>157</v>
-      </c>
-      <c r="T20" t="s">
-        <v>151</v>
-      </c>
-      <c r="V20" t="s">
-        <v>135</v>
-      </c>
-      <c r="W20" t="s">
-        <v>159</v>
-      </c>
-      <c r="X20" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>162</v>
-      </c>
       <c r="AG20" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="AH20" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="AI20" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>2</v>
+      <c r="F21" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>3</v>
+      <c r="J21" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2">
-        <v>4</v>
+      <c r="N21" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2">
-        <v>5</v>
+      <c r="R21" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2">
-        <v>6</v>
+      <c r="V21" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -1961,55 +3590,130 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H22" t="s">
+        <v>318</v>
+      </c>
+      <c r="J22" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" t="s">
+        <v>321</v>
+      </c>
+      <c r="L22" t="s">
+        <v>322</v>
+      </c>
+      <c r="M22" t="s">
+        <v>323</v>
+      </c>
+      <c r="N22" t="s">
+        <v>320</v>
+      </c>
+      <c r="O22" t="s">
+        <v>327</v>
+      </c>
+      <c r="P22" t="s">
+        <v>322</v>
+      </c>
+      <c r="R22" t="s">
+        <v>329</v>
+      </c>
+      <c r="S22" t="s">
+        <v>330</v>
+      </c>
+      <c r="T22" t="s">
+        <v>330</v>
+      </c>
+      <c r="V22" t="s">
+        <v>332</v>
+      </c>
+      <c r="W22" t="s">
+        <v>333</v>
+      </c>
+      <c r="X22" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>2</v>
+      <c r="F23" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>3</v>
+      <c r="J23" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2">
-        <v>4</v>
+      <c r="N23" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2">
-        <v>5</v>
+      <c r="R23" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2">
-        <v>6</v>
+      <c r="V23" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2021,55 +3725,133 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="s">
+        <v>192</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>197</v>
+      </c>
+      <c r="P24" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>192</v>
+      </c>
+      <c r="R24" t="s">
+        <v>189</v>
+      </c>
+      <c r="S24" t="s">
+        <v>198</v>
+      </c>
+      <c r="T24" t="s">
+        <v>189</v>
+      </c>
+      <c r="V24" t="s">
+        <v>200</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -2081,12 +3863,12 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -2094,111 +3876,111 @@
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" t="s">
+        <v>28</v>
+      </c>
+      <c r="W26" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="s">
         <v>34</v>
       </c>
-      <c r="T26" t="s">
-        <v>27</v>
-      </c>
-      <c r="V26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W26" t="s">
-        <v>34</v>
-      </c>
-      <c r="X26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>35</v>
-      </c>
       <c r="AD26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="s">
         <v>37</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>38</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>2</v>
+      <c r="F27" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2">
-        <v>3</v>
+      <c r="J27" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2">
-        <v>4</v>
+      <c r="N27" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2">
-        <v>5</v>
+      <c r="R27" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2">
-        <v>6</v>
+      <c r="V27" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -2210,55 +3992,112 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" t="s">
+        <v>177</v>
+      </c>
+      <c r="R28" t="s">
+        <v>177</v>
+      </c>
+      <c r="V28" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>2</v>
+      <c r="F29" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2">
-        <v>3</v>
+      <c r="J29" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2">
-        <v>4</v>
+      <c r="N29" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2">
-        <v>5</v>
+      <c r="R29" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2">
-        <v>6</v>
+      <c r="V29" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -2270,55 +4109,121 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" t="s">
+        <v>325</v>
+      </c>
+      <c r="O30" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" t="s">
+        <v>325</v>
+      </c>
+      <c r="R30" t="s">
+        <v>325</v>
+      </c>
+      <c r="S30" t="s">
+        <v>215</v>
+      </c>
+      <c r="T30" t="s">
+        <v>325</v>
+      </c>
+      <c r="V30" t="s">
+        <v>325</v>
+      </c>
+      <c r="W30" t="s">
+        <v>215</v>
+      </c>
+      <c r="X30" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2">
-        <v>2</v>
+      <c r="F31" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2">
-        <v>3</v>
+      <c r="J31" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="2">
-        <v>4</v>
+      <c r="N31" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2">
-        <v>5</v>
+      <c r="R31" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="2">
-        <v>6</v>
+      <c r="V31" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -2330,22 +4235,85 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2" t="s">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G32" t="s">
+        <v>391</v>
+      </c>
+      <c r="H32" t="s">
+        <v>392</v>
+      </c>
+      <c r="J32" t="s">
+        <v>390</v>
+      </c>
+      <c r="K32" t="s">
+        <v>391</v>
+      </c>
+      <c r="L32" t="s">
+        <v>392</v>
+      </c>
+      <c r="N32" t="s">
+        <v>398</v>
+      </c>
+      <c r="O32" t="s">
+        <v>398</v>
+      </c>
+      <c r="P32" t="s">
+        <v>398</v>
+      </c>
+      <c r="R32" t="s">
+        <v>398</v>
+      </c>
+      <c r="S32" t="s">
+        <v>398</v>
+      </c>
+      <c r="T32" t="s">
+        <v>398</v>
+      </c>
+      <c r="U32" t="s">
+        <v>399</v>
+      </c>
+      <c r="V32" t="s">
+        <v>398</v>
+      </c>
+      <c r="W32" t="s">
+        <v>398</v>
+      </c>
+      <c r="X32" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -2390,12 +4358,12 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
@@ -2405,40 +4373,40 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <v>2</v>
+      <c r="F35" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2">
-        <v>3</v>
+      <c r="J35" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="2">
-        <v>4</v>
+      <c r="N35" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2">
-        <v>5</v>
+      <c r="R35" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="2">
-        <v>6</v>
+      <c r="V35" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -2450,22 +4418,70 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>288</v>
+      </c>
+      <c r="P36" t="s">
+        <v>287</v>
+      </c>
+      <c r="R36" t="s">
+        <v>287</v>
+      </c>
+      <c r="S36" t="s">
+        <v>290</v>
+      </c>
+      <c r="T36" t="s">
+        <v>291</v>
+      </c>
+      <c r="U36" t="s">
+        <v>295</v>
+      </c>
+      <c r="V36" t="s">
+        <v>287</v>
+      </c>
+      <c r="W36" t="s">
+        <v>293</v>
+      </c>
+      <c r="X36" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -2510,12 +4526,12 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
@@ -2525,117 +4541,180 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2">
-        <v>2</v>
+      <c r="F39" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2">
-        <v>3</v>
+      <c r="J39" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2">
-        <v>4</v>
+      <c r="N39" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2">
-        <v>5</v>
+      <c r="R39" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="V39" s="2">
-        <v>6</v>
+      <c r="V39" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2">
-        <v>7</v>
+      <c r="Z39" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2" t="s">
-        <v>23</v>
+        <v>471</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" t="s">
+        <v>454</v>
+      </c>
+      <c r="F40" t="s">
+        <v>456</v>
+      </c>
+      <c r="G40" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40" t="s">
+        <v>456</v>
+      </c>
+      <c r="I40" t="s">
+        <v>457</v>
+      </c>
+      <c r="J40" t="s">
+        <v>459</v>
+      </c>
+      <c r="K40" t="s">
+        <v>460</v>
+      </c>
+      <c r="N40" t="s">
+        <v>462</v>
+      </c>
+      <c r="O40" t="s">
+        <v>463</v>
+      </c>
+      <c r="P40" t="s">
+        <v>462</v>
+      </c>
+      <c r="R40" t="s">
+        <v>465</v>
+      </c>
+      <c r="S40" t="s">
+        <v>466</v>
+      </c>
+      <c r="V40" t="s">
+        <v>468</v>
+      </c>
+      <c r="W40" t="s">
+        <v>468</v>
+      </c>
+      <c r="X40" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
@@ -2643,203 +4722,290 @@
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
         <v>43</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>44</v>
       </c>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N42" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" t="s">
         <v>49</v>
       </c>
-      <c r="O42" t="s">
-        <v>50</v>
-      </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R42" t="s">
+        <v>51</v>
+      </c>
+      <c r="S42" t="s">
         <v>52</v>
       </c>
-      <c r="S42" t="s">
-        <v>53</v>
-      </c>
       <c r="T42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V42" t="s">
+        <v>54</v>
+      </c>
+      <c r="W42" t="s">
         <v>55</v>
       </c>
-      <c r="W42" t="s">
+      <c r="Y42" t="s">
         <v>56</v>
       </c>
-      <c r="Y42" t="s">
-        <v>57</v>
-      </c>
       <c r="Z42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC42" t="s">
         <v>59</v>
       </c>
-      <c r="AC42" t="s">
-        <v>60</v>
-      </c>
       <c r="AD42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE42" t="s">
         <v>62</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG42" t="s">
         <v>63</v>
       </c>
-      <c r="AF42" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
         <v>64</v>
       </c>
-      <c r="AH42" t="s">
-        <v>65</v>
-      </c>
       <c r="AI42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2">
-        <v>2</v>
+      <c r="F43" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2">
-        <v>3</v>
+      <c r="J43" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2">
-        <v>4</v>
+      <c r="N43" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2">
-        <v>5</v>
+      <c r="R43" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="V43" s="2">
-        <v>6</v>
+      <c r="V43" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="2">
-        <v>7</v>
+      <c r="Z43" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2" t="s">
-        <v>23</v>
+        <v>384</v>
       </c>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
+      <c r="B44" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" t="s">
+        <v>369</v>
+      </c>
+      <c r="D44" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>371</v>
+      </c>
+      <c r="H44" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s">
+        <v>371</v>
+      </c>
+      <c r="N44" t="s">
+        <v>371</v>
+      </c>
+      <c r="O44" t="s">
+        <v>374</v>
+      </c>
+      <c r="P44" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>377</v>
+      </c>
+      <c r="R44" t="s">
+        <v>367</v>
+      </c>
+      <c r="S44" t="s">
+        <v>378</v>
+      </c>
+      <c r="T44" t="s">
+        <v>374</v>
+      </c>
+      <c r="U44" t="s">
+        <v>379</v>
+      </c>
+      <c r="V44" t="s">
+        <v>381</v>
+      </c>
+      <c r="W44" t="s">
+        <v>381</v>
+      </c>
+      <c r="X44" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
@@ -2847,90 +5013,90 @@
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L46" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N46" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="O46" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="R46" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="S46" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="T46" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="V46" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="W46" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="X46" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="Z46" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AA46" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AB46" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AD46" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AE46" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AG46" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AH46" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AI46" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
@@ -2939,7 +5105,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -2947,7 +5113,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -2955,7 +5121,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -2963,7 +5129,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -2971,7 +5137,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -2979,7 +5145,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -2987,7 +5153,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -2995,7 +5161,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -3003,7 +5169,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3011,7 +5177,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3019,30 +5185,30 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -3050,49 +5216,49 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -3100,49 +5266,49 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I73" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J73" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3150,49 +5316,49 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H75" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I75" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J75" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -3201,53 +5367,53 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H77" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="I77" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J77" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K77" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -3256,81 +5422,509 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H79" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J79" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K79" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L79" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" t="s">
+        <v>235</v>
+      </c>
+      <c r="F81" t="s">
+        <v>236</v>
+      </c>
+      <c r="G81" t="s">
+        <v>237</v>
+      </c>
+      <c r="H81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" t="s">
+        <v>241</v>
+      </c>
+      <c r="E123" t="s">
+        <v>243</v>
+      </c>
+      <c r="F123" t="s">
+        <v>244</v>
+      </c>
+      <c r="G123" t="s">
+        <v>245</v>
+      </c>
+      <c r="H123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I123" t="s">
+        <v>247</v>
+      </c>
+      <c r="J123" t="s">
+        <v>248</v>
+      </c>
+      <c r="K123" t="s">
+        <v>249</v>
+      </c>
+      <c r="L123" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" t="s">
+        <v>477</v>
+      </c>
+      <c r="C134" t="s">
+        <v>477</v>
+      </c>
+      <c r="D134" t="s">
+        <v>477</v>
+      </c>
+      <c r="E134" t="s">
+        <v>479</v>
+      </c>
+      <c r="F134" t="s">
+        <v>479</v>
+      </c>
+      <c r="G134" t="s">
+        <v>479</v>
+      </c>
+      <c r="H134" t="s">
+        <v>481</v>
+      </c>
+      <c r="I134" t="s">
+        <v>481</v>
+      </c>
+      <c r="J134" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" t="s">
+        <v>477</v>
+      </c>
+      <c r="C136" t="s">
+        <v>477</v>
+      </c>
+      <c r="D136" t="s">
+        <v>477</v>
+      </c>
+      <c r="E136" t="s">
+        <v>479</v>
+      </c>
+      <c r="F136" t="s">
+        <v>479</v>
+      </c>
+      <c r="G136" t="s">
+        <v>479</v>
+      </c>
+      <c r="H136" t="s">
+        <v>482</v>
+      </c>
+      <c r="I136" t="s">
+        <v>482</v>
+      </c>
+      <c r="J136" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="265">
+  <mergeCells count="305">
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A150"/>
     <mergeCell ref="AG43:AI43"/>
     <mergeCell ref="AG45:AI45"/>
     <mergeCell ref="AG23:AI23"/>
@@ -3348,6 +5942,7 @@
     <mergeCell ref="AG37:AI37"/>
     <mergeCell ref="AG39:AI39"/>
     <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AG21:AI21"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG5:AI5"/>
@@ -3391,7 +5986,6 @@
     <mergeCell ref="AD23:AF23"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N29:Q29"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="N17:Q17"/>
@@ -3406,7 +6000,6 @@
     <mergeCell ref="Z23:AC23"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG21:AI21"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AD5:AF5"/>
@@ -3460,10 +6053,11 @@
     <mergeCell ref="V27:Y27"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
     <mergeCell ref="R29:U29"/>
     <mergeCell ref="V29:Y29"/>
     <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="J29:M29"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:M25"/>
     <mergeCell ref="R25:U25"/>
@@ -3547,14 +6141,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -3571,15 +6157,17 @@
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A107:A108"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="H76:K76"/>
@@ -3596,6 +6184,37 @@
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="H74:J74"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="H122:L122"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
